--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H2">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I2">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J2">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N2">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O2">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P2">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q2">
-        <v>14.94144768139538</v>
+        <v>2.860302382037333</v>
       </c>
       <c r="R2">
-        <v>14.94144768139538</v>
+        <v>25.742721438336</v>
       </c>
       <c r="S2">
-        <v>0.2908516383985907</v>
+        <v>0.04365241302456836</v>
       </c>
       <c r="T2">
-        <v>0.2908516383985907</v>
+        <v>0.05804688486753731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H3">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I3">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J3">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N3">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O3">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P3">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q3">
-        <v>0.6942632548206984</v>
+        <v>0.1287185256746667</v>
       </c>
       <c r="R3">
-        <v>0.6942632548206984</v>
+        <v>1.158466731072</v>
       </c>
       <c r="S3">
-        <v>0.0135145943987725</v>
+        <v>0.001964433649375857</v>
       </c>
       <c r="T3">
-        <v>0.0135145943987725</v>
+        <v>0.002612209634575271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H4">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I4">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J4">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N4">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O4">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P4">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q4">
-        <v>0.2581787758132588</v>
+        <v>0.08627108731733332</v>
       </c>
       <c r="R4">
-        <v>0.2581787758132588</v>
+        <v>0.7764397858559999</v>
       </c>
       <c r="S4">
-        <v>0.00502573254923153</v>
+        <v>0.001316623430901888</v>
       </c>
       <c r="T4">
-        <v>0.00502573254923153</v>
+        <v>0.001750782681004369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H5">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I5">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J5">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N5">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O5">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P5">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q5">
-        <v>0.8455514607429124</v>
+        <v>0.2260795691093333</v>
       </c>
       <c r="R5">
-        <v>0.8455514607429124</v>
+        <v>2.034716121984</v>
       </c>
       <c r="S5">
-        <v>0.01645958497138279</v>
+        <v>0.003450306089717564</v>
       </c>
       <c r="T5">
-        <v>0.01645958497138279</v>
+        <v>0.004588051529588464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H6">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I6">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J6">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.7335272665878</v>
+        <v>19.1777795</v>
       </c>
       <c r="N6">
-        <v>17.7335272665878</v>
+        <v>38.355559</v>
       </c>
       <c r="O6">
-        <v>0.5086986398176706</v>
+        <v>0.5001601867174891</v>
       </c>
       <c r="P6">
-        <v>0.5086986398176706</v>
+        <v>0.4001537891027781</v>
       </c>
       <c r="Q6">
-        <v>17.33219495410513</v>
+        <v>3.303487585552</v>
       </c>
       <c r="R6">
-        <v>17.33219495410513</v>
+        <v>19.820925513312</v>
       </c>
       <c r="S6">
-        <v>0.3373901516733401</v>
+        <v>0.0504160697874662</v>
       </c>
       <c r="T6">
-        <v>0.3373901516733401</v>
+        <v>0.04469391412229899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H7">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I7">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J7">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2874215044277</v>
+        <v>16.60495066666667</v>
       </c>
       <c r="N7">
-        <v>15.2874215044277</v>
+        <v>49.814852</v>
       </c>
       <c r="O7">
-        <v>0.4385303842103676</v>
+        <v>0.4330603147186406</v>
       </c>
       <c r="P7">
-        <v>0.4385303842103676</v>
+        <v>0.5197056776409935</v>
       </c>
       <c r="Q7">
-        <v>7.586459771551502</v>
+        <v>17.21420291157733</v>
       </c>
       <c r="R7">
-        <v>7.586459771551502</v>
+        <v>154.927826204196</v>
       </c>
       <c r="S7">
-        <v>0.1476787458117769</v>
+        <v>0.2627140053806706</v>
       </c>
       <c r="T7">
-        <v>0.1476787458117769</v>
+        <v>0.3493444821673098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H8">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I8">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J8">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.710339134319327</v>
+        <v>0.7472513333333333</v>
       </c>
       <c r="N8">
-        <v>0.710339134319327</v>
+        <v>2.241754</v>
       </c>
       <c r="O8">
-        <v>0.02037657517341908</v>
+        <v>0.01948845883877707</v>
       </c>
       <c r="P8">
-        <v>0.02037657517341908</v>
+        <v>0.02338764916283215</v>
       </c>
       <c r="Q8">
-        <v>0.3525093662859684</v>
+        <v>0.7746687320046666</v>
       </c>
       <c r="R8">
-        <v>0.3525093662859684</v>
+        <v>6.972018588041999</v>
       </c>
       <c r="S8">
-        <v>0.006861980774646579</v>
+        <v>0.0118225819965929</v>
       </c>
       <c r="T8">
-        <v>0.006861980774646579</v>
+        <v>0.01572110241894316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H9">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I9">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J9">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.264156984886342</v>
+        <v>0.5008306666666666</v>
       </c>
       <c r="N9">
-        <v>0.264156984886342</v>
+        <v>1.502492</v>
       </c>
       <c r="O9">
-        <v>0.007577527972294661</v>
+        <v>0.01306176034372721</v>
       </c>
       <c r="P9">
-        <v>0.007577527972294661</v>
+        <v>0.01567511679067463</v>
       </c>
       <c r="Q9">
-        <v>0.1310892316689344</v>
+        <v>0.5192066446573333</v>
       </c>
       <c r="R9">
-        <v>0.1310892316689344</v>
+        <v>4.672859801915999</v>
       </c>
       <c r="S9">
-        <v>0.002551795423063131</v>
+        <v>0.007923855547586784</v>
       </c>
       <c r="T9">
-        <v>0.002551795423063131</v>
+        <v>0.01053676300595103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.496255027007284</v>
+        <v>1.036691</v>
       </c>
       <c r="H10">
-        <v>0.496255027007284</v>
+        <v>3.110073</v>
       </c>
       <c r="I10">
-        <v>0.3367582980086823</v>
+        <v>0.6066453019398833</v>
       </c>
       <c r="J10">
-        <v>0.3367582980086823</v>
+        <v>0.6721967782861762</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.865130465246475</v>
+        <v>1.312462666666667</v>
       </c>
       <c r="N10">
-        <v>0.865130465246475</v>
+        <v>3.937388</v>
       </c>
       <c r="O10">
-        <v>0.02481687282624798</v>
+        <v>0.034229279381366</v>
       </c>
       <c r="P10">
-        <v>0.02481687282624798</v>
+        <v>0.04107776730272161</v>
       </c>
       <c r="Q10">
-        <v>0.4293253423957136</v>
+        <v>1.360618234369333</v>
       </c>
       <c r="R10">
-        <v>0.4293253423957136</v>
+        <v>12.245564109324</v>
       </c>
       <c r="S10">
-        <v>0.008357287854865187</v>
+        <v>0.0207650315254934</v>
       </c>
       <c r="T10">
-        <v>0.008357287854865187</v>
+        <v>0.02761234284007869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.036691</v>
+      </c>
+      <c r="H11">
+        <v>3.110073</v>
+      </c>
+      <c r="I11">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J11">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.1777795</v>
+      </c>
+      <c r="N11">
+        <v>38.355559</v>
+      </c>
+      <c r="O11">
+        <v>0.5001601867174891</v>
+      </c>
+      <c r="P11">
+        <v>0.4001537891027781</v>
+      </c>
+      <c r="Q11">
+        <v>19.8814314076345</v>
+      </c>
+      <c r="R11">
+        <v>119.288588445807</v>
+      </c>
+      <c r="S11">
+        <v>0.3034198274895396</v>
+      </c>
+      <c r="T11">
+        <v>0.2689820878538934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4999445</v>
+      </c>
+      <c r="H12">
+        <v>0.999889</v>
+      </c>
+      <c r="I12">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J12">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.60495066666667</v>
+      </c>
+      <c r="N12">
+        <v>49.814852</v>
+      </c>
+      <c r="O12">
+        <v>0.4330603147186406</v>
+      </c>
+      <c r="P12">
+        <v>0.5197056776409935</v>
+      </c>
+      <c r="Q12">
+        <v>8.301553758571334</v>
+      </c>
+      <c r="R12">
+        <v>49.809322551428</v>
+      </c>
+      <c r="S12">
+        <v>0.1266938963134017</v>
+      </c>
+      <c r="T12">
+        <v>0.1123143106061463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="H11">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="I11">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="J11">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.7335272665878</v>
-      </c>
-      <c r="N11">
-        <v>17.7335272665878</v>
-      </c>
-      <c r="O11">
-        <v>0.5086986398176706</v>
-      </c>
-      <c r="P11">
-        <v>0.5086986398176706</v>
-      </c>
-      <c r="Q11">
-        <v>8.800352052614937</v>
-      </c>
-      <c r="R11">
-        <v>8.800352052614937</v>
-      </c>
-      <c r="S11">
-        <v>0.1713084881443304</v>
-      </c>
-      <c r="T11">
-        <v>0.1713084881443304</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4999445</v>
+      </c>
+      <c r="H13">
+        <v>0.999889</v>
+      </c>
+      <c r="I13">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J13">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7472513333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.241754</v>
+      </c>
+      <c r="O13">
+        <v>0.01948845883877707</v>
+      </c>
+      <c r="P13">
+        <v>0.02338764916283215</v>
+      </c>
+      <c r="Q13">
+        <v>0.3735841942176666</v>
+      </c>
+      <c r="R13">
+        <v>2.241505165306</v>
+      </c>
+      <c r="S13">
+        <v>0.005701443192808311</v>
+      </c>
+      <c r="T13">
+        <v>0.005054337109313721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4999445</v>
+      </c>
+      <c r="H14">
+        <v>0.999889</v>
+      </c>
+      <c r="I14">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J14">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5008306666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.502492</v>
+      </c>
+      <c r="O14">
+        <v>0.01306176034372721</v>
+      </c>
+      <c r="P14">
+        <v>0.01567511679067463</v>
+      </c>
+      <c r="Q14">
+        <v>0.2503875372313333</v>
+      </c>
+      <c r="R14">
+        <v>1.502325223388</v>
+      </c>
+      <c r="S14">
+        <v>0.003821281365238534</v>
+      </c>
+      <c r="T14">
+        <v>0.003387571103719227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4999445</v>
+      </c>
+      <c r="H15">
+        <v>0.999889</v>
+      </c>
+      <c r="I15">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J15">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.312462666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.937388</v>
+      </c>
+      <c r="O15">
+        <v>0.034229279381366</v>
+      </c>
+      <c r="P15">
+        <v>0.04107776730272161</v>
+      </c>
+      <c r="Q15">
+        <v>0.6561584916553332</v>
+      </c>
+      <c r="R15">
+        <v>3.936950949932</v>
+      </c>
+      <c r="S15">
+        <v>0.01001394176615504</v>
+      </c>
+      <c r="T15">
+        <v>0.008877372933054448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4999445</v>
+      </c>
+      <c r="H16">
+        <v>0.999889</v>
+      </c>
+      <c r="I16">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J16">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>19.1777795</v>
+      </c>
+      <c r="N16">
+        <v>38.355559</v>
+      </c>
+      <c r="O16">
+        <v>0.5001601867174891</v>
+      </c>
+      <c r="P16">
+        <v>0.4001537891027781</v>
+      </c>
+      <c r="Q16">
+        <v>9.58782538323775</v>
+      </c>
+      <c r="R16">
+        <v>38.351301532951</v>
+      </c>
+      <c r="S16">
+        <v>0.1463242894404833</v>
+      </c>
+      <c r="T16">
+        <v>0.08647778712658566</v>
       </c>
     </row>
   </sheetData>
